--- a/elrond.xlsx
+++ b/elrond.xlsx
@@ -5336,13 +5336,13 @@
     <col min="2" max="2" style="2" width="70.7192857142857" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="2" width="74.43357142857143" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="2" width="30.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="2" width="76.7192857142857" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="2" width="26.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="2" width="76.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="2" width="47.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="2" width="74.43357142857143" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="2" width="37.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5368,7 +5368,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18" hidden="1">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -5394,7 +5394,7 @@
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18" hidden="1">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -5420,7 +5420,7 @@
         <v>17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18" hidden="1">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -5446,7 +5446,7 @@
         <v>21</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18" hidden="1">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -5472,7 +5472,7 @@
         <v>25</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18" hidden="1">
       <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
@@ -5498,7 +5498,7 @@
         <v>29</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18">
       <c r="A7" s="1" t="s">
         <v>30</v>
       </c>
@@ -5524,7 +5524,7 @@
         <v>33</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18" hidden="1">
       <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
@@ -5550,7 +5550,7 @@
         <v>36</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18" hidden="1">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
@@ -5576,7 +5576,7 @@
         <v>39</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18" hidden="1">
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
@@ -5602,7 +5602,7 @@
         <v>43</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18" hidden="1">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -5628,7 +5628,7 @@
         <v>46</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18" hidden="1">
       <c r="A12" s="1" t="s">
         <v>47</v>
       </c>
@@ -5654,7 +5654,7 @@
         <v>50</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18" hidden="1">
       <c r="A13" s="1" t="s">
         <v>51</v>
       </c>
@@ -5680,7 +5680,7 @@
         <v>54</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18" hidden="1">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -5706,7 +5706,7 @@
         <v>57</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18" hidden="1">
       <c r="A15" s="1" t="s">
         <v>47</v>
       </c>
@@ -5732,7 +5732,7 @@
         <v>60</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18" hidden="1">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
@@ -5758,7 +5758,7 @@
         <v>63</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18" hidden="1">
       <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
@@ -5784,7 +5784,7 @@
         <v>66</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18" hidden="1">
       <c r="A18" s="1" t="s">
         <v>67</v>
       </c>
@@ -5810,7 +5810,7 @@
         <v>70</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18" hidden="1">
       <c r="A19" s="1" t="s">
         <v>47</v>
       </c>
@@ -5836,7 +5836,7 @@
         <v>73</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18" hidden="1">
       <c r="A20" s="1" t="s">
         <v>74</v>
       </c>
@@ -5862,7 +5862,7 @@
         <v>77</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18">
       <c r="A21" s="1" t="s">
         <v>30</v>
       </c>
@@ -5888,7 +5888,7 @@
         <v>80</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18" hidden="1">
       <c r="A22" s="1" t="s">
         <v>81</v>
       </c>
@@ -5914,7 +5914,7 @@
         <v>84</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18" hidden="1">
       <c r="A23" s="1" t="s">
         <v>85</v>
       </c>
@@ -5940,7 +5940,7 @@
         <v>88</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18" hidden="1">
       <c r="A24" s="1" t="s">
         <v>89</v>
       </c>
@@ -5966,7 +5966,7 @@
         <v>92</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18" hidden="1">
       <c r="A25" s="1" t="s">
         <v>93</v>
       </c>
@@ -5992,7 +5992,7 @@
         <v>96</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18" hidden="1">
       <c r="A26" s="1" t="s">
         <v>97</v>
       </c>
@@ -6018,7 +6018,7 @@
         <v>100</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18" hidden="1">
       <c r="A27" s="1" t="s">
         <v>101</v>
       </c>
@@ -6044,7 +6044,7 @@
         <v>104</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18" hidden="1">
       <c r="A28" s="1" t="s">
         <v>97</v>
       </c>
@@ -6070,7 +6070,7 @@
         <v>107</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18" hidden="1">
       <c r="A29" s="1" t="s">
         <v>97</v>
       </c>
@@ -6096,7 +6096,7 @@
         <v>96</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18" hidden="1">
       <c r="A30" s="1" t="s">
         <v>110</v>
       </c>
@@ -6122,7 +6122,7 @@
         <v>113</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18" hidden="1">
       <c r="A31" s="1" t="s">
         <v>114</v>
       </c>
@@ -6148,7 +6148,7 @@
         <v>117</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18" hidden="1">
       <c r="A32" s="1" t="s">
         <v>118</v>
       </c>
@@ -6174,7 +6174,7 @@
         <v>121</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18" hidden="1">
       <c r="A33" s="1" t="s">
         <v>122</v>
       </c>
@@ -6200,7 +6200,7 @@
         <v>125</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18" hidden="1">
       <c r="A34" s="1" t="s">
         <v>97</v>
       </c>
@@ -6226,7 +6226,7 @@
         <v>128</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18" hidden="1">
       <c r="A35" s="1" t="s">
         <v>129</v>
       </c>
@@ -6252,7 +6252,7 @@
         <v>132</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18" hidden="1">
       <c r="A36" s="1" t="s">
         <v>133</v>
       </c>
@@ -6278,7 +6278,7 @@
         <v>136</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18" hidden="1">
       <c r="A37" s="1" t="s">
         <v>97</v>
       </c>
@@ -6304,7 +6304,7 @@
         <v>139</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18" hidden="1">
       <c r="A38" s="1" t="s">
         <v>140</v>
       </c>
@@ -6330,7 +6330,7 @@
         <v>143</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18" hidden="1">
       <c r="A39" s="1" t="s">
         <v>144</v>
       </c>
@@ -6356,7 +6356,7 @@
         <v>147</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18" hidden="1">
       <c r="A40" s="1" t="s">
         <v>140</v>
       </c>
@@ -6382,7 +6382,7 @@
         <v>150</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18" hidden="1">
       <c r="A41" s="1" t="s">
         <v>151</v>
       </c>
@@ -6408,7 +6408,7 @@
         <v>154</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18" hidden="1">
       <c r="A42" s="1" t="s">
         <v>122</v>
       </c>
@@ -6434,7 +6434,7 @@
         <v>157</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18" hidden="1">
       <c r="A43" s="1" t="s">
         <v>158</v>
       </c>
@@ -6460,7 +6460,7 @@
         <v>161</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18" hidden="1">
       <c r="A44" s="1" t="s">
         <v>162</v>
       </c>
@@ -6486,7 +6486,7 @@
         <v>165</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18" hidden="1">
       <c r="A45" s="1" t="s">
         <v>166</v>
       </c>
@@ -6512,7 +6512,7 @@
         <v>21</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18" hidden="1">
       <c r="A46" s="1" t="s">
         <v>169</v>
       </c>
@@ -6538,7 +6538,7 @@
         <v>172</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18" hidden="1">
       <c r="A47" s="1" t="s">
         <v>173</v>
       </c>
@@ -6564,7 +6564,7 @@
         <v>176</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18" hidden="1">
       <c r="A48" s="1" t="s">
         <v>8</v>
       </c>
@@ -6590,7 +6590,7 @@
         <v>179</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18" hidden="1">
       <c r="A49" s="1" t="s">
         <v>180</v>
       </c>
@@ -6616,7 +6616,7 @@
         <v>183</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18" hidden="1">
       <c r="A50" s="1" t="s">
         <v>184</v>
       </c>
@@ -6642,7 +6642,7 @@
         <v>187</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18" hidden="1">
       <c r="A51" s="1" t="s">
         <v>188</v>
       </c>
@@ -6668,7 +6668,7 @@
         <v>191</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18" hidden="1">
       <c r="A52" s="1" t="s">
         <v>192</v>
       </c>
@@ -6694,7 +6694,7 @@
         <v>195</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18" hidden="1">
       <c r="A53" s="1" t="s">
         <v>144</v>
       </c>
@@ -6720,7 +6720,7 @@
         <v>198</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18" hidden="1">
       <c r="A54" s="1" t="s">
         <v>199</v>
       </c>
@@ -6746,7 +6746,7 @@
         <v>202</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18" hidden="1">
       <c r="A55" s="1" t="s">
         <v>203</v>
       </c>
@@ -6772,7 +6772,7 @@
         <v>206</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18" hidden="1">
       <c r="A56" s="1" t="s">
         <v>166</v>
       </c>
@@ -6798,7 +6798,7 @@
         <v>209</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18" hidden="1">
       <c r="A57" s="1" t="s">
         <v>210</v>
       </c>
@@ -6824,7 +6824,7 @@
         <v>213</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18" hidden="1">
       <c r="A58" s="1" t="s">
         <v>166</v>
       </c>
@@ -6850,7 +6850,7 @@
         <v>216</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18" hidden="1">
       <c r="A59" s="1" t="s">
         <v>199</v>
       </c>
@@ -6876,7 +6876,7 @@
         <v>219</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18" hidden="1">
       <c r="A60" s="1" t="s">
         <v>140</v>
       </c>
@@ -6902,7 +6902,7 @@
         <v>222</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18" hidden="1">
       <c r="A61" s="1" t="s">
         <v>166</v>
       </c>
@@ -6928,7 +6928,7 @@
         <v>225</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18" hidden="1">
       <c r="A62" s="1" t="s">
         <v>97</v>
       </c>
@@ -6954,7 +6954,7 @@
         <v>228</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18" hidden="1">
       <c r="A63" s="1" t="s">
         <v>229</v>
       </c>
@@ -6980,7 +6980,7 @@
         <v>232</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18" hidden="1">
       <c r="A64" s="1" t="s">
         <v>166</v>
       </c>
@@ -7006,7 +7006,7 @@
         <v>235</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18" hidden="1">
       <c r="A65" s="1" t="s">
         <v>236</v>
       </c>
@@ -7032,7 +7032,7 @@
         <v>239</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18" hidden="1">
       <c r="A66" s="1" t="s">
         <v>240</v>
       </c>
@@ -7058,7 +7058,7 @@
         <v>243</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18" hidden="1">
       <c r="A67" s="1" t="s">
         <v>244</v>
       </c>
@@ -7084,7 +7084,7 @@
         <v>247</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18" hidden="1">
       <c r="A68" s="1" t="s">
         <v>248</v>
       </c>
@@ -7110,7 +7110,7 @@
         <v>251</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18" hidden="1">
       <c r="A69" s="1" t="s">
         <v>252</v>
       </c>
@@ -7136,7 +7136,7 @@
         <v>255</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18" hidden="1">
       <c r="A70" s="1" t="s">
         <v>256</v>
       </c>
@@ -7162,7 +7162,7 @@
         <v>259</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18" hidden="1">
       <c r="A71" s="1" t="s">
         <v>169</v>
       </c>
@@ -7188,7 +7188,7 @@
         <v>262</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18" hidden="1">
       <c r="A72" s="1" t="s">
         <v>263</v>
       </c>
@@ -7214,7 +7214,7 @@
         <v>266</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18" hidden="1">
       <c r="A73" s="1" t="s">
         <v>192</v>
       </c>
@@ -7240,7 +7240,7 @@
         <v>269</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18" hidden="1">
       <c r="A74" s="1" t="s">
         <v>18</v>
       </c>
@@ -7266,7 +7266,7 @@
         <v>272</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18" hidden="1">
       <c r="A75" s="1" t="s">
         <v>273</v>
       </c>
@@ -7292,7 +7292,7 @@
         <v>276</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18" hidden="1">
       <c r="A76" s="1" t="s">
         <v>277</v>
       </c>
@@ -7318,7 +7318,7 @@
         <v>280</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18" hidden="1">
       <c r="A77" s="1" t="s">
         <v>281</v>
       </c>
@@ -7344,7 +7344,7 @@
         <v>284</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18" hidden="1">
       <c r="A78" s="1" t="s">
         <v>273</v>
       </c>
@@ -7370,7 +7370,7 @@
         <v>287</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18" hidden="1">
       <c r="A79" s="1" t="s">
         <v>288</v>
       </c>
@@ -7396,7 +7396,7 @@
         <v>36</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18" hidden="1">
       <c r="A80" s="1" t="s">
         <v>291</v>
       </c>
@@ -7422,7 +7422,7 @@
         <v>294</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18" hidden="1">
       <c r="A81" s="1" t="s">
         <v>97</v>
       </c>
@@ -7448,7 +7448,7 @@
         <v>297</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18" hidden="1">
       <c r="A82" s="1" t="s">
         <v>298</v>
       </c>
@@ -7474,7 +7474,7 @@
         <v>301</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18" hidden="1">
       <c r="A83" s="1" t="s">
         <v>298</v>
       </c>
@@ -7500,7 +7500,7 @@
         <v>304</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18" hidden="1">
       <c r="A84" s="1" t="s">
         <v>305</v>
       </c>
@@ -7526,7 +7526,7 @@
         <v>308</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18" hidden="1">
       <c r="A85" s="1" t="s">
         <v>309</v>
       </c>
@@ -7552,7 +7552,7 @@
         <v>312</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18" hidden="1">
       <c r="A86" s="1" t="s">
         <v>313</v>
       </c>
@@ -7578,7 +7578,7 @@
         <v>316</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18" hidden="1">
       <c r="A87" s="1" t="s">
         <v>313</v>
       </c>
@@ -7604,7 +7604,7 @@
         <v>284</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18" hidden="1">
       <c r="A88" s="1" t="s">
         <v>319</v>
       </c>
@@ -7630,7 +7630,7 @@
         <v>322</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18" hidden="1">
       <c r="A89" s="1" t="s">
         <v>210</v>
       </c>
@@ -7656,7 +7656,7 @@
         <v>325</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18" hidden="1">
       <c r="A90" s="1" t="s">
         <v>326</v>
       </c>
@@ -7682,7 +7682,7 @@
         <v>329</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18" hidden="1">
       <c r="A91" s="1" t="s">
         <v>330</v>
       </c>
@@ -7708,7 +7708,7 @@
         <v>333</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18" hidden="1">
       <c r="A92" s="1" t="s">
         <v>240</v>
       </c>
@@ -7734,7 +7734,7 @@
         <v>336</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18" hidden="1">
       <c r="A93" s="1" t="s">
         <v>337</v>
       </c>
@@ -7760,7 +7760,7 @@
         <v>340</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18" hidden="1">
       <c r="A94" s="1" t="s">
         <v>273</v>
       </c>
@@ -7786,7 +7786,7 @@
         <v>312</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18" hidden="1">
       <c r="A95" s="1" t="s">
         <v>343</v>
       </c>
@@ -7812,7 +7812,7 @@
         <v>63</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18" hidden="1">
       <c r="A96" s="1" t="s">
         <v>346</v>
       </c>
@@ -7838,7 +7838,7 @@
         <v>349</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18" hidden="1">
       <c r="A97" s="1" t="s">
         <v>350</v>
       </c>
@@ -7864,7 +7864,7 @@
         <v>353</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18" hidden="1">
       <c r="A98" s="1" t="s">
         <v>313</v>
       </c>
@@ -7890,7 +7890,7 @@
         <v>356</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18" hidden="1">
       <c r="A99" s="1" t="s">
         <v>192</v>
       </c>
@@ -7916,7 +7916,7 @@
         <v>359</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18" hidden="1">
       <c r="A100" s="1" t="s">
         <v>360</v>
       </c>
@@ -7942,7 +7942,7 @@
         <v>363</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18" hidden="1">
       <c r="A101" s="1" t="s">
         <v>313</v>
       </c>
@@ -7968,7 +7968,7 @@
         <v>366</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18" hidden="1">
       <c r="A102" s="1" t="s">
         <v>313</v>
       </c>
@@ -7994,7 +7994,7 @@
         <v>369</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18" hidden="1">
       <c r="A103" s="1" t="s">
         <v>370</v>
       </c>
@@ -8020,7 +8020,7 @@
         <v>373</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18" hidden="1">
       <c r="A104" s="1" t="s">
         <v>184</v>
       </c>
@@ -8046,7 +8046,7 @@
         <v>376</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18" hidden="1">
       <c r="A105" s="1" t="s">
         <v>313</v>
       </c>
@@ -8072,7 +8072,7 @@
         <v>379</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18" hidden="1">
       <c r="A106" s="1" t="s">
         <v>380</v>
       </c>
@@ -8098,7 +8098,7 @@
         <v>63</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18" hidden="1">
       <c r="A107" s="1" t="s">
         <v>313</v>
       </c>
@@ -8124,7 +8124,7 @@
         <v>385</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18" hidden="1">
       <c r="A108" s="1" t="s">
         <v>309</v>
       </c>
@@ -8150,7 +8150,7 @@
         <v>388</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18" hidden="1">
       <c r="A109" s="1" t="s">
         <v>389</v>
       </c>
@@ -8176,7 +8176,7 @@
         <v>392</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18" hidden="1">
       <c r="A110" s="1" t="s">
         <v>158</v>
       </c>
@@ -8202,7 +8202,7 @@
         <v>395</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18" hidden="1">
       <c r="A111" s="1" t="s">
         <v>370</v>
       </c>
@@ -8228,7 +8228,7 @@
         <v>398</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18" hidden="1">
       <c r="A112" s="1" t="s">
         <v>399</v>
       </c>
@@ -8254,7 +8254,7 @@
         <v>402</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18" hidden="1">
       <c r="A113" s="1" t="s">
         <v>403</v>
       </c>
@@ -8280,7 +8280,7 @@
         <v>216</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18" hidden="1">
       <c r="A114" s="1" t="s">
         <v>406</v>
       </c>
@@ -8306,7 +8306,7 @@
         <v>409</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18" hidden="1">
       <c r="A115" s="1" t="s">
         <v>410</v>
       </c>
@@ -8332,7 +8332,7 @@
         <v>413</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18" hidden="1">
       <c r="A116" s="1" t="s">
         <v>414</v>
       </c>
@@ -8358,7 +8358,7 @@
         <v>417</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18" hidden="1">
       <c r="A117" s="1" t="s">
         <v>313</v>
       </c>
@@ -8384,7 +8384,7 @@
         <v>420</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18" hidden="1">
       <c r="A118" s="1" t="s">
         <v>380</v>
       </c>
@@ -8410,7 +8410,7 @@
         <v>423</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18" hidden="1">
       <c r="A119" s="1" t="s">
         <v>424</v>
       </c>
@@ -8436,7 +8436,7 @@
         <v>427</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18" hidden="1">
       <c r="A120" s="1" t="s">
         <v>305</v>
       </c>
@@ -8462,7 +8462,7 @@
         <v>430</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18" hidden="1">
       <c r="A121" s="1" t="s">
         <v>431</v>
       </c>
@@ -8488,7 +8488,7 @@
         <v>434</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18" hidden="1">
       <c r="A122" s="1" t="s">
         <v>414</v>
       </c>
@@ -8514,7 +8514,7 @@
         <v>437</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18" hidden="1">
       <c r="A123" s="1" t="s">
         <v>166</v>
       </c>
@@ -8540,7 +8540,7 @@
         <v>398</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18" hidden="1">
       <c r="A124" s="1" t="s">
         <v>440</v>
       </c>
@@ -8566,7 +8566,7 @@
         <v>443</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18" hidden="1">
       <c r="A125" s="1" t="s">
         <v>444</v>
       </c>
@@ -8592,7 +8592,7 @@
         <v>447</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18" hidden="1">
       <c r="A126" s="1" t="s">
         <v>448</v>
       </c>
@@ -8618,7 +8618,7 @@
         <v>451</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18" hidden="1">
       <c r="A127" s="1" t="s">
         <v>452</v>
       </c>
@@ -8644,7 +8644,7 @@
         <v>455</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18" hidden="1">
       <c r="A128" s="1" t="s">
         <v>288</v>
       </c>
@@ -8670,7 +8670,7 @@
         <v>458</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18" hidden="1">
       <c r="A129" s="1" t="s">
         <v>406</v>
       </c>
@@ -8696,7 +8696,7 @@
         <v>461</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18" hidden="1">
       <c r="A130" s="1" t="s">
         <v>158</v>
       </c>
@@ -8722,7 +8722,7 @@
         <v>464</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18" hidden="1">
       <c r="A131" s="1" t="s">
         <v>166</v>
       </c>
@@ -8748,7 +8748,7 @@
         <v>359</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18" hidden="1">
       <c r="A132" s="1" t="s">
         <v>97</v>
       </c>
@@ -8774,7 +8774,7 @@
         <v>469</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18" hidden="1">
       <c r="A133" s="1" t="s">
         <v>448</v>
       </c>
@@ -8800,7 +8800,7 @@
         <v>472</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18" hidden="1">
       <c r="A134" s="1" t="s">
         <v>173</v>
       </c>
@@ -8826,7 +8826,7 @@
         <v>213</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18" hidden="1">
       <c r="A135" s="1" t="s">
         <v>475</v>
       </c>
@@ -8852,7 +8852,7 @@
         <v>121</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18" hidden="1">
       <c r="A136" s="1" t="s">
         <v>478</v>
       </c>
@@ -8878,7 +8878,7 @@
         <v>481</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18" hidden="1">
       <c r="A137" s="1" t="s">
         <v>482</v>
       </c>
@@ -8904,7 +8904,7 @@
         <v>485</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18" hidden="1">
       <c r="A138" s="1" t="s">
         <v>475</v>
       </c>
@@ -8930,7 +8930,7 @@
         <v>488</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18" hidden="1">
       <c r="A139" s="1" t="s">
         <v>489</v>
       </c>
@@ -8956,7 +8956,7 @@
         <v>492</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18" hidden="1">
       <c r="A140" s="1" t="s">
         <v>493</v>
       </c>
@@ -8982,7 +8982,7 @@
         <v>496</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18" hidden="1">
       <c r="A141" s="1" t="s">
         <v>129</v>
       </c>
@@ -9008,7 +9008,7 @@
         <v>499</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18" hidden="1">
       <c r="A142" s="1" t="s">
         <v>500</v>
       </c>
@@ -9034,7 +9034,7 @@
         <v>503</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18" hidden="1">
       <c r="A143" s="1" t="s">
         <v>298</v>
       </c>
@@ -9060,7 +9060,7 @@
         <v>506</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18" hidden="1">
       <c r="A144" s="1" t="s">
         <v>507</v>
       </c>
@@ -9086,7 +9086,7 @@
         <v>510</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18" hidden="1">
       <c r="A145" s="1" t="s">
         <v>511</v>
       </c>
@@ -9112,7 +9112,7 @@
         <v>514</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18" hidden="1">
       <c r="A146" s="1" t="s">
         <v>515</v>
       </c>
@@ -9138,7 +9138,7 @@
         <v>518</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18" hidden="1">
       <c r="A147" s="1" t="s">
         <v>519</v>
       </c>
@@ -9164,7 +9164,7 @@
         <v>522</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18" hidden="1">
       <c r="A148" s="1" t="s">
         <v>523</v>
       </c>
@@ -9190,7 +9190,7 @@
         <v>526</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18" hidden="1">
       <c r="A149" s="1" t="s">
         <v>527</v>
       </c>
@@ -9216,7 +9216,7 @@
         <v>530</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18" hidden="1">
       <c r="A150" s="1" t="s">
         <v>252</v>
       </c>
@@ -9242,7 +9242,7 @@
         <v>533</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18" hidden="1">
       <c r="A151" s="1" t="s">
         <v>440</v>
       </c>
@@ -9268,7 +9268,7 @@
         <v>536</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18" hidden="1">
       <c r="A152" s="1" t="s">
         <v>188</v>
       </c>
@@ -9294,7 +9294,7 @@
         <v>539</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18" hidden="1">
       <c r="A153" s="1" t="s">
         <v>192</v>
       </c>
@@ -9320,7 +9320,7 @@
         <v>70</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18" hidden="1">
       <c r="A154" s="1" t="s">
         <v>129</v>
       </c>
@@ -9346,7 +9346,7 @@
         <v>544</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18" hidden="1">
       <c r="A155" s="1" t="s">
         <v>493</v>
       </c>
@@ -9372,7 +9372,7 @@
         <v>547</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18" hidden="1">
       <c r="A156" s="1" t="s">
         <v>493</v>
       </c>
@@ -9398,7 +9398,7 @@
         <v>550</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18" hidden="1">
       <c r="A157" s="1" t="s">
         <v>551</v>
       </c>
@@ -9424,7 +9424,7 @@
         <v>554</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18" hidden="1">
       <c r="A158" s="1" t="s">
         <v>555</v>
       </c>
@@ -9450,7 +9450,7 @@
         <v>558</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="18" hidden="1">
       <c r="A159" s="1" t="s">
         <v>240</v>
       </c>
@@ -9476,7 +9476,7 @@
         <v>154</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18" hidden="1">
       <c r="A160" s="1" t="s">
         <v>188</v>
       </c>
